--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_164.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_164.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32272-d676191-Reviews-Courtyard_by_Marriott_Los_Angeles_Westside-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>445</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Courtyard-By-Marriott-Los-Angeles-Westside.h23614.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_164.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_164.xlsx
@@ -6898,7 +6898,7 @@
         <v>7580</v>
       </c>
       <c r="B2" t="n">
-        <v>133229</v>
+        <v>164055</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -6963,7 +6963,7 @@
         <v>7580</v>
       </c>
       <c r="B3" t="n">
-        <v>133230</v>
+        <v>164056</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -7032,7 +7032,7 @@
         <v>7580</v>
       </c>
       <c r="B4" t="n">
-        <v>133231</v>
+        <v>164057</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
@@ -7093,7 +7093,7 @@
         <v>7580</v>
       </c>
       <c r="B5" t="n">
-        <v>133232</v>
+        <v>164058</v>
       </c>
       <c r="C5" t="s">
         <v>73</v>
@@ -7227,7 +7227,7 @@
         <v>7580</v>
       </c>
       <c r="B7" t="n">
-        <v>133233</v>
+        <v>164059</v>
       </c>
       <c r="C7" t="s">
         <v>91</v>
@@ -7298,7 +7298,7 @@
         <v>7580</v>
       </c>
       <c r="B8" t="n">
-        <v>133234</v>
+        <v>164060</v>
       </c>
       <c r="C8" t="s">
         <v>100</v>
@@ -7363,7 +7363,7 @@
         <v>7580</v>
       </c>
       <c r="B9" t="n">
-        <v>133235</v>
+        <v>164061</v>
       </c>
       <c r="C9" t="s">
         <v>109</v>
@@ -7432,7 +7432,7 @@
         <v>7580</v>
       </c>
       <c r="B10" t="n">
-        <v>133236</v>
+        <v>164062</v>
       </c>
       <c r="C10" t="s">
         <v>118</v>
@@ -7501,7 +7501,7 @@
         <v>7580</v>
       </c>
       <c r="B11" t="n">
-        <v>133237</v>
+        <v>164063</v>
       </c>
       <c r="C11" t="s">
         <v>128</v>
@@ -7566,7 +7566,7 @@
         <v>7580</v>
       </c>
       <c r="B12" t="n">
-        <v>133238</v>
+        <v>164064</v>
       </c>
       <c r="C12" t="s">
         <v>138</v>
@@ -7771,7 +7771,7 @@
         <v>7580</v>
       </c>
       <c r="B15" t="n">
-        <v>133239</v>
+        <v>164065</v>
       </c>
       <c r="C15" t="s">
         <v>168</v>
@@ -7836,7 +7836,7 @@
         <v>7580</v>
       </c>
       <c r="B16" t="n">
-        <v>133240</v>
+        <v>164066</v>
       </c>
       <c r="C16" t="s">
         <v>177</v>
@@ -7907,7 +7907,7 @@
         <v>7580</v>
       </c>
       <c r="B17" t="n">
-        <v>133241</v>
+        <v>164067</v>
       </c>
       <c r="C17" t="s">
         <v>184</v>
@@ -7978,7 +7978,7 @@
         <v>7580</v>
       </c>
       <c r="B18" t="n">
-        <v>133242</v>
+        <v>164068</v>
       </c>
       <c r="C18" t="s">
         <v>193</v>
@@ -8114,7 +8114,7 @@
         <v>7580</v>
       </c>
       <c r="B20" t="n">
-        <v>133243</v>
+        <v>164069</v>
       </c>
       <c r="C20" t="s">
         <v>211</v>
@@ -8185,7 +8185,7 @@
         <v>7580</v>
       </c>
       <c r="B21" t="n">
-        <v>133244</v>
+        <v>164070</v>
       </c>
       <c r="C21" t="s">
         <v>221</v>
@@ -8319,7 +8319,7 @@
         <v>7580</v>
       </c>
       <c r="B23" t="n">
-        <v>133245</v>
+        <v>164071</v>
       </c>
       <c r="C23" t="s">
         <v>239</v>
@@ -8388,7 +8388,7 @@
         <v>7580</v>
       </c>
       <c r="B24" t="n">
-        <v>133246</v>
+        <v>164072</v>
       </c>
       <c r="C24" t="s">
         <v>249</v>
@@ -8528,7 +8528,7 @@
         <v>7580</v>
       </c>
       <c r="B26" t="n">
-        <v>133247</v>
+        <v>164073</v>
       </c>
       <c r="C26" t="s">
         <v>267</v>
@@ -8593,7 +8593,7 @@
         <v>7580</v>
       </c>
       <c r="B27" t="n">
-        <v>133248</v>
+        <v>164074</v>
       </c>
       <c r="C27" t="s">
         <v>276</v>
@@ -8664,7 +8664,7 @@
         <v>7580</v>
       </c>
       <c r="B28" t="n">
-        <v>133249</v>
+        <v>164075</v>
       </c>
       <c r="C28" t="s">
         <v>285</v>
@@ -8800,7 +8800,7 @@
         <v>7580</v>
       </c>
       <c r="B30" t="n">
-        <v>133250</v>
+        <v>164076</v>
       </c>
       <c r="C30" t="s">
         <v>302</v>
@@ -8871,7 +8871,7 @@
         <v>7580</v>
       </c>
       <c r="B31" t="n">
-        <v>133251</v>
+        <v>164077</v>
       </c>
       <c r="C31" t="s">
         <v>312</v>
@@ -8936,7 +8936,7 @@
         <v>7580</v>
       </c>
       <c r="B32" t="n">
-        <v>133252</v>
+        <v>164078</v>
       </c>
       <c r="C32" t="s">
         <v>321</v>
@@ -9005,7 +9005,7 @@
         <v>7580</v>
       </c>
       <c r="B33" t="n">
-        <v>133253</v>
+        <v>164079</v>
       </c>
       <c r="C33" t="s">
         <v>331</v>
@@ -9070,7 +9070,7 @@
         <v>7580</v>
       </c>
       <c r="B34" t="n">
-        <v>133254</v>
+        <v>164080</v>
       </c>
       <c r="C34" t="s">
         <v>340</v>
@@ -9141,7 +9141,7 @@
         <v>7580</v>
       </c>
       <c r="B35" t="n">
-        <v>133255</v>
+        <v>164081</v>
       </c>
       <c r="C35" t="s">
         <v>349</v>
@@ -9210,7 +9210,7 @@
         <v>7580</v>
       </c>
       <c r="B36" t="n">
-        <v>133256</v>
+        <v>164082</v>
       </c>
       <c r="C36" t="s">
         <v>358</v>
@@ -9281,7 +9281,7 @@
         <v>7580</v>
       </c>
       <c r="B37" t="n">
-        <v>133257</v>
+        <v>164083</v>
       </c>
       <c r="C37" t="s">
         <v>365</v>
@@ -9350,7 +9350,7 @@
         <v>7580</v>
       </c>
       <c r="B38" t="n">
-        <v>133258</v>
+        <v>164084</v>
       </c>
       <c r="C38" t="s">
         <v>372</v>
@@ -9634,7 +9634,7 @@
         <v>7580</v>
       </c>
       <c r="B42" t="n">
-        <v>133259</v>
+        <v>164085</v>
       </c>
       <c r="C42" t="s">
         <v>409</v>
@@ -9703,7 +9703,7 @@
         <v>7580</v>
       </c>
       <c r="B43" t="n">
-        <v>133260</v>
+        <v>164086</v>
       </c>
       <c r="C43" t="s">
         <v>416</v>
@@ -9768,7 +9768,7 @@
         <v>7580</v>
       </c>
       <c r="B44" t="n">
-        <v>133261</v>
+        <v>164087</v>
       </c>
       <c r="C44" t="s">
         <v>425</v>
@@ -9837,7 +9837,7 @@
         <v>7580</v>
       </c>
       <c r="B45" t="n">
-        <v>133262</v>
+        <v>164088</v>
       </c>
       <c r="C45" t="s">
         <v>432</v>
@@ -9902,7 +9902,7 @@
         <v>7580</v>
       </c>
       <c r="B46" t="n">
-        <v>133263</v>
+        <v>164089</v>
       </c>
       <c r="C46" t="s">
         <v>442</v>
@@ -9967,7 +9967,7 @@
         <v>7580</v>
       </c>
       <c r="B47" t="n">
-        <v>133264</v>
+        <v>164090</v>
       </c>
       <c r="C47" t="s">
         <v>448</v>
@@ -10032,7 +10032,7 @@
         <v>7580</v>
       </c>
       <c r="B48" t="n">
-        <v>133265</v>
+        <v>164091</v>
       </c>
       <c r="C48" t="s">
         <v>457</v>
@@ -10103,7 +10103,7 @@
         <v>7580</v>
       </c>
       <c r="B49" t="n">
-        <v>133266</v>
+        <v>164092</v>
       </c>
       <c r="C49" t="s">
         <v>466</v>
@@ -10172,7 +10172,7 @@
         <v>7580</v>
       </c>
       <c r="B50" t="n">
-        <v>133267</v>
+        <v>164093</v>
       </c>
       <c r="C50" t="s">
         <v>475</v>
@@ -10237,7 +10237,7 @@
         <v>7580</v>
       </c>
       <c r="B51" t="n">
-        <v>133268</v>
+        <v>164094</v>
       </c>
       <c r="C51" t="s">
         <v>485</v>
@@ -10503,7 +10503,7 @@
         <v>7580</v>
       </c>
       <c r="B55" t="n">
-        <v>133269</v>
+        <v>164095</v>
       </c>
       <c r="C55" t="s">
         <v>519</v>
@@ -10568,7 +10568,7 @@
         <v>7580</v>
       </c>
       <c r="B56" t="n">
-        <v>133270</v>
+        <v>164096</v>
       </c>
       <c r="C56" t="s">
         <v>529</v>
@@ -10708,7 +10708,7 @@
         <v>7580</v>
       </c>
       <c r="B58" t="n">
-        <v>133271</v>
+        <v>164097</v>
       </c>
       <c r="C58" t="s">
         <v>548</v>
@@ -10773,7 +10773,7 @@
         <v>7580</v>
       </c>
       <c r="B59" t="n">
-        <v>133272</v>
+        <v>164098</v>
       </c>
       <c r="C59" t="s">
         <v>557</v>
@@ -10844,7 +10844,7 @@
         <v>7580</v>
       </c>
       <c r="B60" t="n">
-        <v>133273</v>
+        <v>164099</v>
       </c>
       <c r="C60" t="s">
         <v>566</v>
@@ -10915,7 +10915,7 @@
         <v>7580</v>
       </c>
       <c r="B61" t="n">
-        <v>133274</v>
+        <v>164100</v>
       </c>
       <c r="C61" t="s">
         <v>573</v>
@@ -11051,7 +11051,7 @@
         <v>7580</v>
       </c>
       <c r="B63" t="n">
-        <v>133275</v>
+        <v>164101</v>
       </c>
       <c r="C63" t="s">
         <v>593</v>
@@ -11116,7 +11116,7 @@
         <v>7580</v>
       </c>
       <c r="B64" t="n">
-        <v>133276</v>
+        <v>164102</v>
       </c>
       <c r="C64" t="s">
         <v>600</v>
@@ -11252,7 +11252,7 @@
         <v>7580</v>
       </c>
       <c r="B66" t="n">
-        <v>133277</v>
+        <v>164103</v>
       </c>
       <c r="C66" t="s">
         <v>618</v>
@@ -11457,7 +11457,7 @@
         <v>7580</v>
       </c>
       <c r="B69" t="n">
-        <v>133278</v>
+        <v>164104</v>
       </c>
       <c r="C69" t="s">
         <v>640</v>
@@ -11528,7 +11528,7 @@
         <v>7580</v>
       </c>
       <c r="B70" t="n">
-        <v>133279</v>
+        <v>164105</v>
       </c>
       <c r="C70" t="s">
         <v>649</v>
@@ -11599,7 +11599,7 @@
         <v>7580</v>
       </c>
       <c r="B71" t="n">
-        <v>133280</v>
+        <v>164106</v>
       </c>
       <c r="C71" t="s">
         <v>658</v>
@@ -11670,7 +11670,7 @@
         <v>7580</v>
       </c>
       <c r="B72" t="n">
-        <v>133281</v>
+        <v>164107</v>
       </c>
       <c r="C72" t="s">
         <v>668</v>
@@ -11739,7 +11739,7 @@
         <v>7580</v>
       </c>
       <c r="B73" t="n">
-        <v>133282</v>
+        <v>164108</v>
       </c>
       <c r="C73" t="s">
         <v>675</v>
@@ -11810,7 +11810,7 @@
         <v>7580</v>
       </c>
       <c r="B74" t="n">
-        <v>133283</v>
+        <v>164109</v>
       </c>
       <c r="C74" t="s">
         <v>684</v>
@@ -11932,7 +11932,7 @@
         <v>7580</v>
       </c>
       <c r="B76" t="n">
-        <v>133284</v>
+        <v>164110</v>
       </c>
       <c r="C76" t="s">
         <v>702</v>
@@ -12068,7 +12068,7 @@
         <v>7580</v>
       </c>
       <c r="B78" t="n">
-        <v>133285</v>
+        <v>164111</v>
       </c>
       <c r="C78" t="s">
         <v>720</v>
@@ -12139,7 +12139,7 @@
         <v>7580</v>
       </c>
       <c r="B79" t="n">
-        <v>133286</v>
+        <v>164112</v>
       </c>
       <c r="C79" t="s">
         <v>729</v>
@@ -12346,7 +12346,7 @@
         <v>7580</v>
       </c>
       <c r="B82" t="n">
-        <v>133287</v>
+        <v>164113</v>
       </c>
       <c r="C82" t="s">
         <v>758</v>
@@ -12415,7 +12415,7 @@
         <v>7580</v>
       </c>
       <c r="B83" t="n">
-        <v>133288</v>
+        <v>164114</v>
       </c>
       <c r="C83" t="s">
         <v>768</v>
@@ -12555,7 +12555,7 @@
         <v>7580</v>
       </c>
       <c r="B85" t="n">
-        <v>133289</v>
+        <v>164115</v>
       </c>
       <c r="C85" t="s">
         <v>787</v>
@@ -12626,7 +12626,7 @@
         <v>7580</v>
       </c>
       <c r="B86" t="n">
-        <v>133290</v>
+        <v>164116</v>
       </c>
       <c r="C86" t="s">
         <v>796</v>
@@ -12766,7 +12766,7 @@
         <v>7580</v>
       </c>
       <c r="B88" t="n">
-        <v>133291</v>
+        <v>164117</v>
       </c>
       <c r="C88" t="s">
         <v>812</v>
@@ -12902,7 +12902,7 @@
         <v>7580</v>
       </c>
       <c r="B90" t="n">
-        <v>133292</v>
+        <v>164118</v>
       </c>
       <c r="C90" t="s">
         <v>830</v>
@@ -12973,7 +12973,7 @@
         <v>7580</v>
       </c>
       <c r="B91" t="n">
-        <v>133293</v>
+        <v>164119</v>
       </c>
       <c r="C91" t="s">
         <v>839</v>
@@ -13107,7 +13107,7 @@
         <v>7580</v>
       </c>
       <c r="B93" t="n">
-        <v>133294</v>
+        <v>164120</v>
       </c>
       <c r="C93" t="s">
         <v>856</v>
@@ -13243,7 +13243,7 @@
         <v>7580</v>
       </c>
       <c r="B95" t="n">
-        <v>133295</v>
+        <v>164121</v>
       </c>
       <c r="C95" t="s">
         <v>874</v>
@@ -13312,7 +13312,7 @@
         <v>7580</v>
       </c>
       <c r="B96" t="n">
-        <v>133296</v>
+        <v>164122</v>
       </c>
       <c r="C96" t="s">
         <v>883</v>
@@ -13381,7 +13381,7 @@
         <v>7580</v>
       </c>
       <c r="B97" t="n">
-        <v>133297</v>
+        <v>164123</v>
       </c>
       <c r="C97" t="s">
         <v>892</v>
@@ -13446,7 +13446,7 @@
         <v>7580</v>
       </c>
       <c r="B98" t="n">
-        <v>133298</v>
+        <v>164124</v>
       </c>
       <c r="C98" t="s">
         <v>901</v>
@@ -13511,7 +13511,7 @@
         <v>7580</v>
       </c>
       <c r="B99" t="n">
-        <v>133299</v>
+        <v>164125</v>
       </c>
       <c r="C99" t="s">
         <v>910</v>
@@ -13702,7 +13702,7 @@
         <v>7580</v>
       </c>
       <c r="B102" t="n">
-        <v>133300</v>
+        <v>164126</v>
       </c>
       <c r="C102" t="s">
         <v>938</v>
@@ -13771,7 +13771,7 @@
         <v>7580</v>
       </c>
       <c r="B103" t="n">
-        <v>133301</v>
+        <v>164127</v>
       </c>
       <c r="C103" t="s">
         <v>948</v>
@@ -13836,7 +13836,7 @@
         <v>7580</v>
       </c>
       <c r="B104" t="n">
-        <v>133302</v>
+        <v>164128</v>
       </c>
       <c r="C104" t="s">
         <v>958</v>
@@ -13907,7 +13907,7 @@
         <v>7580</v>
       </c>
       <c r="B105" t="n">
-        <v>133303</v>
+        <v>164129</v>
       </c>
       <c r="C105" t="s">
         <v>968</v>
@@ -13976,7 +13976,7 @@
         <v>7580</v>
       </c>
       <c r="B106" t="n">
-        <v>133304</v>
+        <v>164130</v>
       </c>
       <c r="C106" t="s">
         <v>977</v>
@@ -14043,7 +14043,7 @@
         <v>7580</v>
       </c>
       <c r="B107" t="n">
-        <v>133305</v>
+        <v>164131</v>
       </c>
       <c r="C107" t="s">
         <v>986</v>
@@ -14112,7 +14112,7 @@
         <v>7580</v>
       </c>
       <c r="B108" t="n">
-        <v>133306</v>
+        <v>164132</v>
       </c>
       <c r="C108" t="s">
         <v>993</v>
@@ -14173,7 +14173,7 @@
         <v>7580</v>
       </c>
       <c r="B109" t="n">
-        <v>133307</v>
+        <v>164133</v>
       </c>
       <c r="C109" t="s">
         <v>1002</v>
@@ -14238,7 +14238,7 @@
         <v>7580</v>
       </c>
       <c r="B110" t="n">
-        <v>133308</v>
+        <v>164134</v>
       </c>
       <c r="C110" t="s">
         <v>1012</v>
@@ -14307,7 +14307,7 @@
         <v>7580</v>
       </c>
       <c r="B111" t="n">
-        <v>133309</v>
+        <v>164135</v>
       </c>
       <c r="C111" t="s">
         <v>1022</v>
@@ -14378,7 +14378,7 @@
         <v>7580</v>
       </c>
       <c r="B112" t="n">
-        <v>133310</v>
+        <v>164136</v>
       </c>
       <c r="C112" t="s">
         <v>1031</v>
@@ -14516,7 +14516,7 @@
         <v>7580</v>
       </c>
       <c r="B114" t="n">
-        <v>133311</v>
+        <v>164137</v>
       </c>
       <c r="C114" t="s">
         <v>1047</v>
@@ -14587,7 +14587,7 @@
         <v>7580</v>
       </c>
       <c r="B115" t="n">
-        <v>133312</v>
+        <v>164138</v>
       </c>
       <c r="C115" t="s">
         <v>1054</v>
@@ -14656,7 +14656,7 @@
         <v>7580</v>
       </c>
       <c r="B116" t="n">
-        <v>133313</v>
+        <v>164139</v>
       </c>
       <c r="C116" t="s">
         <v>1061</v>
@@ -14725,7 +14725,7 @@
         <v>7580</v>
       </c>
       <c r="B117" t="n">
-        <v>133314</v>
+        <v>164140</v>
       </c>
       <c r="C117" t="s">
         <v>1069</v>
@@ -14790,7 +14790,7 @@
         <v>7580</v>
       </c>
       <c r="B118" t="n">
-        <v>133315</v>
+        <v>164141</v>
       </c>
       <c r="C118" t="s">
         <v>1078</v>
@@ -14865,7 +14865,7 @@
         <v>7580</v>
       </c>
       <c r="B119" t="n">
-        <v>133316</v>
+        <v>164142</v>
       </c>
       <c r="C119" t="s">
         <v>1087</v>
@@ -15003,7 +15003,7 @@
         <v>7580</v>
       </c>
       <c r="B121" t="n">
-        <v>133317</v>
+        <v>164143</v>
       </c>
       <c r="C121" t="s">
         <v>1104</v>
@@ -15068,7 +15068,7 @@
         <v>7580</v>
       </c>
       <c r="B122" t="n">
-        <v>133318</v>
+        <v>133284</v>
       </c>
       <c r="C122" t="s">
         <v>1111</v>
@@ -15137,7 +15137,7 @@
         <v>7580</v>
       </c>
       <c r="B123" t="n">
-        <v>133319</v>
+        <v>164144</v>
       </c>
       <c r="C123" t="s">
         <v>1119</v>
@@ -15277,7 +15277,7 @@
         <v>7580</v>
       </c>
       <c r="B125" t="n">
-        <v>133320</v>
+        <v>164145</v>
       </c>
       <c r="C125" t="s">
         <v>1136</v>
@@ -15622,7 +15622,7 @@
         <v>7580</v>
       </c>
       <c r="B130" t="n">
-        <v>133321</v>
+        <v>164146</v>
       </c>
       <c r="C130" t="s">
         <v>1173</v>
@@ -15687,7 +15687,7 @@
         <v>7580</v>
       </c>
       <c r="B131" t="n">
-        <v>133322</v>
+        <v>164147</v>
       </c>
       <c r="C131" t="s">
         <v>1180</v>
@@ -15756,7 +15756,7 @@
         <v>7580</v>
       </c>
       <c r="B132" t="n">
-        <v>133323</v>
+        <v>164148</v>
       </c>
       <c r="C132" t="s">
         <v>1187</v>
@@ -15817,7 +15817,7 @@
         <v>7580</v>
       </c>
       <c r="B133" t="n">
-        <v>133324</v>
+        <v>164149</v>
       </c>
       <c r="C133" t="s">
         <v>1194</v>
@@ -15888,7 +15888,7 @@
         <v>7580</v>
       </c>
       <c r="B134" t="n">
-        <v>133325</v>
+        <v>164150</v>
       </c>
       <c r="C134" t="s">
         <v>1202</v>
@@ -15959,7 +15959,7 @@
         <v>7580</v>
       </c>
       <c r="B135" t="n">
-        <v>133326</v>
+        <v>164151</v>
       </c>
       <c r="C135" t="s">
         <v>1209</v>
@@ -16028,7 +16028,7 @@
         <v>7580</v>
       </c>
       <c r="B136" t="n">
-        <v>133327</v>
+        <v>164152</v>
       </c>
       <c r="C136" t="s">
         <v>1216</v>
@@ -16089,7 +16089,7 @@
         <v>7580</v>
       </c>
       <c r="B137" t="n">
-        <v>133328</v>
+        <v>164153</v>
       </c>
       <c r="C137" t="s">
         <v>1223</v>
@@ -16235,7 +16235,7 @@
         <v>7580</v>
       </c>
       <c r="B139" t="n">
-        <v>133329</v>
+        <v>164154</v>
       </c>
       <c r="C139" t="s">
         <v>1237</v>
@@ -16310,7 +16310,7 @@
         <v>7580</v>
       </c>
       <c r="B140" t="n">
-        <v>133330</v>
+        <v>164155</v>
       </c>
       <c r="C140" t="s">
         <v>1245</v>
@@ -16385,7 +16385,7 @@
         <v>7580</v>
       </c>
       <c r="B141" t="n">
-        <v>133331</v>
+        <v>164156</v>
       </c>
       <c r="C141" t="s">
         <v>1253</v>
@@ -16580,7 +16580,7 @@
         <v>7580</v>
       </c>
       <c r="B144" t="n">
-        <v>133332</v>
+        <v>164157</v>
       </c>
       <c r="C144" t="s">
         <v>1281</v>
@@ -16655,7 +16655,7 @@
         <v>7580</v>
       </c>
       <c r="B145" t="n">
-        <v>133333</v>
+        <v>164158</v>
       </c>
       <c r="C145" t="s">
         <v>1288</v>
@@ -16795,7 +16795,7 @@
         <v>7580</v>
       </c>
       <c r="B147" t="n">
-        <v>133334</v>
+        <v>164159</v>
       </c>
       <c r="C147" t="s">
         <v>1304</v>
@@ -16870,7 +16870,7 @@
         <v>7580</v>
       </c>
       <c r="B148" t="n">
-        <v>133335</v>
+        <v>164160</v>
       </c>
       <c r="C148" t="s">
         <v>1313</v>
@@ -16945,7 +16945,7 @@
         <v>7580</v>
       </c>
       <c r="B149" t="n">
-        <v>133336</v>
+        <v>164161</v>
       </c>
       <c r="C149" t="s">
         <v>1320</v>
@@ -17020,7 +17020,7 @@
         <v>7580</v>
       </c>
       <c r="B150" t="n">
-        <v>133337</v>
+        <v>164162</v>
       </c>
       <c r="C150" t="s">
         <v>1330</v>
@@ -17085,7 +17085,7 @@
         <v>7580</v>
       </c>
       <c r="B151" t="n">
-        <v>133338</v>
+        <v>164163</v>
       </c>
       <c r="C151" t="s">
         <v>1337</v>
@@ -17160,7 +17160,7 @@
         <v>7580</v>
       </c>
       <c r="B152" t="n">
-        <v>133339</v>
+        <v>164164</v>
       </c>
       <c r="C152" t="s">
         <v>1347</v>
@@ -17225,7 +17225,7 @@
         <v>7580</v>
       </c>
       <c r="B153" t="n">
-        <v>133340</v>
+        <v>164165</v>
       </c>
       <c r="C153" t="s">
         <v>1356</v>
@@ -17300,7 +17300,7 @@
         <v>7580</v>
       </c>
       <c r="B154" t="n">
-        <v>133341</v>
+        <v>164166</v>
       </c>
       <c r="C154" t="s">
         <v>1366</v>
@@ -17375,7 +17375,7 @@
         <v>7580</v>
       </c>
       <c r="B155" t="n">
-        <v>133342</v>
+        <v>164167</v>
       </c>
       <c r="C155" t="s">
         <v>1373</v>
@@ -17675,7 +17675,7 @@
         <v>7580</v>
       </c>
       <c r="B159" t="n">
-        <v>133343</v>
+        <v>164168</v>
       </c>
       <c r="C159" t="s">
         <v>1404</v>
@@ -17750,7 +17750,7 @@
         <v>7580</v>
       </c>
       <c r="B160" t="n">
-        <v>133344</v>
+        <v>164169</v>
       </c>
       <c r="C160" t="s">
         <v>1413</v>
@@ -17825,7 +17825,7 @@
         <v>7580</v>
       </c>
       <c r="B161" t="n">
-        <v>133345</v>
+        <v>164170</v>
       </c>
       <c r="C161" t="s">
         <v>1419</v>
@@ -17896,7 +17896,7 @@
         <v>7580</v>
       </c>
       <c r="B162" t="n">
-        <v>133346</v>
+        <v>164171</v>
       </c>
       <c r="C162" t="s">
         <v>1428</v>
@@ -17971,7 +17971,7 @@
         <v>7580</v>
       </c>
       <c r="B163" t="n">
-        <v>133347</v>
+        <v>164172</v>
       </c>
       <c r="C163" t="s">
         <v>1436</v>
@@ -18121,7 +18121,7 @@
         <v>7580</v>
       </c>
       <c r="B165" t="n">
-        <v>133348</v>
+        <v>164173</v>
       </c>
       <c r="C165" t="s">
         <v>1454</v>
@@ -18196,7 +18196,7 @@
         <v>7580</v>
       </c>
       <c r="B166" t="n">
-        <v>133349</v>
+        <v>164174</v>
       </c>
       <c r="C166" t="s">
         <v>1462</v>
@@ -18267,7 +18267,7 @@
         <v>7580</v>
       </c>
       <c r="B167" t="n">
-        <v>133350</v>
+        <v>164175</v>
       </c>
       <c r="C167" t="s">
         <v>1471</v>
@@ -18342,7 +18342,7 @@
         <v>7580</v>
       </c>
       <c r="B168" t="n">
-        <v>133351</v>
+        <v>164176</v>
       </c>
       <c r="C168" t="s">
         <v>1480</v>
@@ -18488,7 +18488,7 @@
         <v>7580</v>
       </c>
       <c r="B170" t="n">
-        <v>133352</v>
+        <v>164177</v>
       </c>
       <c r="C170" t="s">
         <v>1498</v>
@@ -18563,7 +18563,7 @@
         <v>7580</v>
       </c>
       <c r="B171" t="n">
-        <v>133353</v>
+        <v>164178</v>
       </c>
       <c r="C171" t="s">
         <v>1508</v>
@@ -18788,7 +18788,7 @@
         <v>7580</v>
       </c>
       <c r="B174" t="n">
-        <v>133354</v>
+        <v>164179</v>
       </c>
       <c r="C174" t="s">
         <v>1535</v>
@@ -18863,7 +18863,7 @@
         <v>7580</v>
       </c>
       <c r="B175" t="n">
-        <v>133355</v>
+        <v>164180</v>
       </c>
       <c r="C175" t="s">
         <v>1543</v>
@@ -18938,7 +18938,7 @@
         <v>7580</v>
       </c>
       <c r="B176" t="n">
-        <v>133356</v>
+        <v>164181</v>
       </c>
       <c r="C176" t="s">
         <v>1550</v>
@@ -19013,7 +19013,7 @@
         <v>7580</v>
       </c>
       <c r="B177" t="n">
-        <v>133357</v>
+        <v>164182</v>
       </c>
       <c r="C177" t="s">
         <v>1559</v>
@@ -19088,7 +19088,7 @@
         <v>7580</v>
       </c>
       <c r="B178" t="n">
-        <v>133358</v>
+        <v>164183</v>
       </c>
       <c r="C178" t="s">
         <v>1567</v>
@@ -19238,7 +19238,7 @@
         <v>7580</v>
       </c>
       <c r="B180" t="n">
-        <v>133359</v>
+        <v>164184</v>
       </c>
       <c r="C180" t="s">
         <v>1585</v>
@@ -19313,7 +19313,7 @@
         <v>7580</v>
       </c>
       <c r="B181" t="n">
-        <v>133360</v>
+        <v>164185</v>
       </c>
       <c r="C181" t="s">
         <v>1595</v>
@@ -19388,7 +19388,7 @@
         <v>7580</v>
       </c>
       <c r="B182" t="n">
-        <v>133361</v>
+        <v>164186</v>
       </c>
       <c r="C182" t="s">
         <v>1604</v>
@@ -19538,7 +19538,7 @@
         <v>7580</v>
       </c>
       <c r="B184" t="n">
-        <v>133362</v>
+        <v>164187</v>
       </c>
       <c r="C184" t="s">
         <v>1620</v>
@@ -19688,7 +19688,7 @@
         <v>7580</v>
       </c>
       <c r="B186" t="n">
-        <v>133363</v>
+        <v>164188</v>
       </c>
       <c r="C186" t="s">
         <v>1638</v>
@@ -19763,7 +19763,7 @@
         <v>7580</v>
       </c>
       <c r="B187" t="n">
-        <v>133364</v>
+        <v>164189</v>
       </c>
       <c r="C187" t="s">
         <v>1645</v>
@@ -19834,7 +19834,7 @@
         <v>7580</v>
       </c>
       <c r="B188" t="n">
-        <v>133365</v>
+        <v>164190</v>
       </c>
       <c r="C188" t="s">
         <v>1654</v>
@@ -19909,7 +19909,7 @@
         <v>7580</v>
       </c>
       <c r="B189" t="n">
-        <v>133366</v>
+        <v>164191</v>
       </c>
       <c r="C189" t="s">
         <v>1661</v>
@@ -19984,7 +19984,7 @@
         <v>7580</v>
       </c>
       <c r="B190" t="n">
-        <v>133367</v>
+        <v>164192</v>
       </c>
       <c r="C190" t="s">
         <v>1668</v>
@@ -20134,7 +20134,7 @@
         <v>7580</v>
       </c>
       <c r="B192" t="n">
-        <v>133368</v>
+        <v>164193</v>
       </c>
       <c r="C192" t="s">
         <v>1684</v>
@@ -20209,7 +20209,7 @@
         <v>7580</v>
       </c>
       <c r="B193" t="n">
-        <v>133369</v>
+        <v>164194</v>
       </c>
       <c r="C193" t="s">
         <v>1692</v>
@@ -20284,7 +20284,7 @@
         <v>7580</v>
       </c>
       <c r="B194" t="n">
-        <v>133370</v>
+        <v>164195</v>
       </c>
       <c r="C194" t="s">
         <v>1699</v>
@@ -20359,7 +20359,7 @@
         <v>7580</v>
       </c>
       <c r="B195" t="n">
-        <v>133371</v>
+        <v>164196</v>
       </c>
       <c r="C195" t="s">
         <v>1709</v>
@@ -20430,7 +20430,7 @@
         <v>7580</v>
       </c>
       <c r="B196" t="n">
-        <v>133372</v>
+        <v>164197</v>
       </c>
       <c r="C196" t="s">
         <v>1716</v>
@@ -20501,7 +20501,7 @@
         <v>7580</v>
       </c>
       <c r="B197" t="n">
-        <v>133373</v>
+        <v>164198</v>
       </c>
       <c r="C197" t="s">
         <v>1723</v>
@@ -20576,7 +20576,7 @@
         <v>7580</v>
       </c>
       <c r="B198" t="n">
-        <v>133374</v>
+        <v>164199</v>
       </c>
       <c r="C198" t="s">
         <v>1731</v>
@@ -20651,7 +20651,7 @@
         <v>7580</v>
       </c>
       <c r="B199" t="n">
-        <v>133375</v>
+        <v>164200</v>
       </c>
       <c r="C199" t="s">
         <v>1739</v>
@@ -20726,7 +20726,7 @@
         <v>7580</v>
       </c>
       <c r="B200" t="n">
-        <v>133376</v>
+        <v>164201</v>
       </c>
       <c r="C200" t="s">
         <v>1746</v>
@@ -20801,7 +20801,7 @@
         <v>7580</v>
       </c>
       <c r="B201" t="n">
-        <v>133377</v>
+        <v>164202</v>
       </c>
       <c r="C201" t="s">
         <v>1753</v>
@@ -21026,7 +21026,7 @@
         <v>7580</v>
       </c>
       <c r="B204" t="n">
-        <v>133378</v>
+        <v>164203</v>
       </c>
       <c r="C204" t="s">
         <v>1775</v>
@@ -21101,7 +21101,7 @@
         <v>7580</v>
       </c>
       <c r="B205" t="n">
-        <v>133379</v>
+        <v>164204</v>
       </c>
       <c r="C205" t="s">
         <v>1782</v>
@@ -21176,7 +21176,7 @@
         <v>7580</v>
       </c>
       <c r="B206" t="n">
-        <v>133380</v>
+        <v>164205</v>
       </c>
       <c r="C206" t="s">
         <v>1789</v>
@@ -21251,7 +21251,7 @@
         <v>7580</v>
       </c>
       <c r="B207" t="n">
-        <v>133381</v>
+        <v>164206</v>
       </c>
       <c r="C207" t="s">
         <v>1795</v>
@@ -21326,7 +21326,7 @@
         <v>7580</v>
       </c>
       <c r="B208" t="n">
-        <v>133382</v>
+        <v>164207</v>
       </c>
       <c r="C208" t="s">
         <v>1802</v>
@@ -21397,7 +21397,7 @@
         <v>7580</v>
       </c>
       <c r="B209" t="n">
-        <v>133383</v>
+        <v>164208</v>
       </c>
       <c r="C209" t="s">
         <v>1809</v>
@@ -21547,7 +21547,7 @@
         <v>7580</v>
       </c>
       <c r="B211" t="n">
-        <v>133384</v>
+        <v>164209</v>
       </c>
       <c r="C211" t="s">
         <v>1825</v>
@@ -21612,7 +21612,7 @@
         <v>7580</v>
       </c>
       <c r="B212" t="n">
-        <v>133385</v>
+        <v>164210</v>
       </c>
       <c r="C212" t="s">
         <v>1832</v>
@@ -21683,7 +21683,7 @@
         <v>7580</v>
       </c>
       <c r="B213" t="n">
-        <v>133386</v>
+        <v>164211</v>
       </c>
       <c r="C213" t="s">
         <v>1840</v>
@@ -21754,7 +21754,7 @@
         <v>7580</v>
       </c>
       <c r="B214" t="n">
-        <v>133387</v>
+        <v>164212</v>
       </c>
       <c r="C214" t="s">
         <v>1850</v>
@@ -21900,7 +21900,7 @@
         <v>7580</v>
       </c>
       <c r="B216" t="n">
-        <v>133388</v>
+        <v>164213</v>
       </c>
       <c r="C216" t="s">
         <v>1866</v>
@@ -21975,7 +21975,7 @@
         <v>7580</v>
       </c>
       <c r="B217" t="n">
-        <v>133389</v>
+        <v>164214</v>
       </c>
       <c r="C217" t="s">
         <v>1874</v>
@@ -22050,7 +22050,7 @@
         <v>7580</v>
       </c>
       <c r="B218" t="n">
-        <v>133390</v>
+        <v>164215</v>
       </c>
       <c r="C218" t="s">
         <v>1882</v>
@@ -22125,7 +22125,7 @@
         <v>7580</v>
       </c>
       <c r="B219" t="n">
-        <v>133391</v>
+        <v>164216</v>
       </c>
       <c r="C219" t="s">
         <v>1890</v>
@@ -22198,7 +22198,7 @@
         <v>7580</v>
       </c>
       <c r="B220" t="n">
-        <v>133392</v>
+        <v>164217</v>
       </c>
       <c r="C220" t="s">
         <v>1897</v>
@@ -22273,7 +22273,7 @@
         <v>7580</v>
       </c>
       <c r="B221" t="n">
-        <v>133393</v>
+        <v>164218</v>
       </c>
       <c r="C221" t="s">
         <v>1904</v>
@@ -22348,7 +22348,7 @@
         <v>7580</v>
       </c>
       <c r="B222" t="n">
-        <v>133394</v>
+        <v>164219</v>
       </c>
       <c r="C222" t="s">
         <v>1912</v>
@@ -22423,7 +22423,7 @@
         <v>7580</v>
       </c>
       <c r="B223" t="n">
-        <v>133395</v>
+        <v>164220</v>
       </c>
       <c r="C223" t="s">
         <v>1919</v>
@@ -22498,7 +22498,7 @@
         <v>7580</v>
       </c>
       <c r="B224" t="n">
-        <v>133396</v>
+        <v>164221</v>
       </c>
       <c r="C224" t="s">
         <v>1927</v>
@@ -22573,7 +22573,7 @@
         <v>7580</v>
       </c>
       <c r="B225" t="n">
-        <v>133397</v>
+        <v>164222</v>
       </c>
       <c r="C225" t="s">
         <v>1934</v>
@@ -22648,7 +22648,7 @@
         <v>7580</v>
       </c>
       <c r="B226" t="n">
-        <v>133398</v>
+        <v>164223</v>
       </c>
       <c r="C226" t="s">
         <v>1941</v>
@@ -22723,7 +22723,7 @@
         <v>7580</v>
       </c>
       <c r="B227" t="n">
-        <v>133399</v>
+        <v>164224</v>
       </c>
       <c r="C227" t="s">
         <v>1949</v>
@@ -22798,7 +22798,7 @@
         <v>7580</v>
       </c>
       <c r="B228" t="n">
-        <v>133400</v>
+        <v>164225</v>
       </c>
       <c r="C228" t="s">
         <v>1957</v>
@@ -22873,7 +22873,7 @@
         <v>7580</v>
       </c>
       <c r="B229" t="n">
-        <v>133401</v>
+        <v>164226</v>
       </c>
       <c r="C229" t="s">
         <v>1965</v>
@@ -22948,7 +22948,7 @@
         <v>7580</v>
       </c>
       <c r="B230" t="n">
-        <v>133402</v>
+        <v>164227</v>
       </c>
       <c r="C230" t="s">
         <v>1972</v>
@@ -23023,7 +23023,7 @@
         <v>7580</v>
       </c>
       <c r="B231" t="n">
-        <v>133403</v>
+        <v>164228</v>
       </c>
       <c r="C231" t="s">
         <v>1980</v>
@@ -23098,7 +23098,7 @@
         <v>7580</v>
       </c>
       <c r="B232" t="n">
-        <v>133404</v>
+        <v>164229</v>
       </c>
       <c r="C232" t="s">
         <v>1990</v>
@@ -23248,7 +23248,7 @@
         <v>7580</v>
       </c>
       <c r="B234" t="n">
-        <v>133405</v>
+        <v>164230</v>
       </c>
       <c r="C234" t="s">
         <v>2006</v>
@@ -23323,7 +23323,7 @@
         <v>7580</v>
       </c>
       <c r="B235" t="n">
-        <v>133406</v>
+        <v>164231</v>
       </c>
       <c r="C235" t="s">
         <v>2013</v>
@@ -23398,7 +23398,7 @@
         <v>7580</v>
       </c>
       <c r="B236" t="n">
-        <v>133317</v>
+        <v>133284</v>
       </c>
       <c r="C236" t="s">
         <v>1111</v>
@@ -23536,7 +23536,7 @@
         <v>7580</v>
       </c>
       <c r="B238" t="n">
-        <v>133407</v>
+        <v>164232</v>
       </c>
       <c r="C238" t="s">
         <v>2035</v>
@@ -23611,7 +23611,7 @@
         <v>7580</v>
       </c>
       <c r="B239" t="n">
-        <v>133408</v>
+        <v>164233</v>
       </c>
       <c r="C239" t="s">
         <v>2043</v>
@@ -23686,7 +23686,7 @@
         <v>7580</v>
       </c>
       <c r="B240" t="n">
-        <v>133409</v>
+        <v>164234</v>
       </c>
       <c r="C240" t="s">
         <v>2050</v>
@@ -23747,7 +23747,7 @@
         <v>7580</v>
       </c>
       <c r="B241" t="n">
-        <v>133410</v>
+        <v>164235</v>
       </c>
       <c r="C241" t="s">
         <v>2057</v>
